--- a/excel/en/MCP-TC25-SwapStrategy.xlsx
+++ b/excel/en/MCP-TC25-SwapStrategy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vuepress\help-master3\zh\latest\api\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23928C2C-508D-45CD-B234-2A02FD5DBE36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C2DC10-CB03-4F88-A0A6-FC71D5C12089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" activeTab="6" xr2:uid="{F01737DF-5C4C-4C69-A2C0-460393DCD652}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13890" tabRatio="714" activeTab="6" xr2:uid="{F01737DF-5C4C-4C69-A2C0-460393DCD652}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Basis Strategy" sheetId="10" r:id="rId6"/>
     <sheet name="Butterfly Strategy" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1815,20 +1815,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000%"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.000000"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="169" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1836,7 +1836,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1844,7 +1844,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1852,14 +1852,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1872,7 +1872,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1881,7 +1881,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1890,7 +1890,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1899,7 +1899,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1908,7 +1908,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF595959"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1917,7 +1917,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1925,7 +1925,7 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
@@ -1934,7 +1934,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1942,7 +1942,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1956,14 +1956,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1971,7 +1971,7 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14996795556505021"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2160,7 +2160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2187,16 +2187,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2250,10 +2250,10 @@
     <xf numFmtId="14" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2262,7 +2262,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2274,7 +2274,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2283,16 +2283,16 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2304,10 +2304,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -2322,7 +2322,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2334,7 +2334,7 @@
     <xf numFmtId="14" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="170" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2360,12 +2360,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="常规 2" xfId="4" xr:uid="{9B21B0FB-9C8B-4C86-9BA1-835300AF61A1}"/>
     <cellStyle name="常规 3" xfId="5" xr:uid="{097C0AD8-E808-4AB3-9760-A87A33F71042}"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2645,7 +2645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2947,15 +2947,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17">
       <c r="B2" t="s">
         <v>147</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
         <v>48</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
         <v>159</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17">
       <c r="B6" t="s">
         <v>162</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17">
       <c r="B7" t="s">
         <v>165</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17">
       <c r="B8" t="s">
         <v>169</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17">
       <c r="B9" t="s">
         <v>173</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17">
       <c r="B10" t="s">
         <v>176</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17">
       <c r="B11" t="s">
         <v>179</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17">
       <c r="B12" t="s">
         <v>182</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17">
       <c r="B13" t="s">
         <v>184</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17">
       <c r="B14" t="s">
         <v>186</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17">
       <c r="B15" t="s">
         <v>189</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
         <v>192</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17">
       <c r="E17" t="s">
         <v>194</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17">
       <c r="E18" t="s">
         <v>196</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17">
       <c r="B19" t="s">
         <v>199</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17">
       <c r="B20" t="s">
         <v>65</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17">
       <c r="B21" t="s">
         <v>204</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17">
       <c r="B23" t="s">
         <v>208</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17">
       <c r="B24" t="s">
         <v>210</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17">
       <c r="B25" t="s">
         <v>42</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17">
       <c r="B26" t="s">
         <v>213</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17">
       <c r="H27" t="s">
         <v>216</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17">
       <c r="B28" t="s">
         <v>218</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17">
       <c r="B29" t="s">
         <v>221</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17">
       <c r="B30" t="s">
         <v>225</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17">
       <c r="B31" t="s">
         <v>228</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17">
       <c r="B32" t="s">
         <v>230</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17">
       <c r="B33" t="s">
         <v>234</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17">
       <c r="B34" t="s">
         <v>239</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17">
       <c r="B35" t="s">
         <v>244</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17">
       <c r="B36" t="s">
         <v>248</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17">
       <c r="B37" t="s">
         <v>252</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17">
       <c r="B38" t="s">
         <v>258</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17">
       <c r="B39" t="s">
         <v>262</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17">
       <c r="B40" t="s">
         <v>266</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17">
       <c r="B41" t="s">
         <v>270</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17">
       <c r="B42" t="s">
         <v>274</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17">
       <c r="B43" t="s">
         <v>278</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17">
       <c r="B44" t="s">
         <v>280</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17">
       <c r="B45" t="s">
         <v>283</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17">
       <c r="B46" t="s">
         <v>286</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17">
       <c r="B47" t="s">
         <v>290</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17">
       <c r="B48" t="s">
         <v>295</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49" t="s">
         <v>298</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50" t="s">
         <v>301</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="E51" t="s">
         <v>305</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52" t="s">
         <v>308</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53" t="s">
         <v>311</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54" t="s">
         <v>313</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55" t="s">
         <v>309</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56" t="s">
         <v>320</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57" t="s">
         <v>323</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58" t="s">
         <v>327</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59" t="s">
         <v>330</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14">
       <c r="B60" t="s">
         <v>332</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61" t="s">
         <v>335</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62" t="s">
         <v>337</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14">
       <c r="E63" t="s">
         <v>340</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="E64" t="s">
         <v>342</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:14">
       <c r="E65" t="s">
         <v>345</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:14">
       <c r="E66" t="s">
         <v>348</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:14">
       <c r="E67" t="s">
         <v>351</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:14">
       <c r="E68" t="s">
         <v>353</v>
       </c>
@@ -4301,12 +4301,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:14">
       <c r="E69" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:14">
       <c r="E70" t="s">
         <v>356</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="71" spans="5:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:14" ht="30">
       <c r="E71" t="s">
         <v>357</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:14">
       <c r="E72" t="s">
         <v>359</v>
       </c>
@@ -4336,17 +4336,17 @@
         <v>361</v>
       </c>
     </row>
-    <row r="73" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:14">
       <c r="E73" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="74" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:14">
       <c r="E74" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="75" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:14">
       <c r="E75" t="s">
         <v>364</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:14">
       <c r="E76" t="s">
         <v>366</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:14">
       <c r="E77" t="s">
         <v>368</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:14">
       <c r="E78" t="s">
         <v>370</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:14">
       <c r="E79" t="s">
         <v>372</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:14">
       <c r="E80" t="s">
         <v>374</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:14">
       <c r="E81" t="s">
         <v>376</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:14">
       <c r="E82" t="s">
         <v>378</v>
       </c>
@@ -4431,12 +4431,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:14">
       <c r="E83" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="5:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:14">
       <c r="E84" t="s">
         <v>381</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:14">
       <c r="E85" t="s">
         <v>383</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:14">
       <c r="E86" t="s">
         <v>384</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:14">
       <c r="E87" t="s">
         <v>386</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:14">
       <c r="E88" t="s">
         <v>388</v>
       </c>
@@ -4488,12 +4488,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:14">
       <c r="E89" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="90" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:14">
       <c r="E90" t="s">
         <v>391</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="91" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:14">
       <c r="E91" t="s">
         <v>393</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:14">
       <c r="E92" t="s">
         <v>395</v>
       </c>
@@ -4575,15 +4575,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="3" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="29" max="30" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="29" max="30" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:30">
       <c r="D1" s="14"/>
       <c r="AC1" s="15" t="s">
         <v>398</v>
@@ -4592,7 +4592,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:30">
       <c r="B2" s="15" t="s">
         <v>398</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:30">
       <c r="B3" s="3">
         <v>45511</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:30">
       <c r="B4" s="3">
         <v>45510</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:30">
       <c r="B5" s="3">
         <v>45509</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:30">
       <c r="B6" s="3">
         <v>45508</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:30">
       <c r="B7" s="3">
         <v>45507</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30">
       <c r="B8" s="3">
         <v>45506</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>2.1165E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:30">
       <c r="B9" s="3">
         <v>45505</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:30">
       <c r="B10" s="3">
         <v>45504</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:30">
       <c r="B11" s="3">
         <v>45501</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:30">
       <c r="B12" s="3">
         <v>45500</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30">
       <c r="B13" s="3">
         <v>45499</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:30">
       <c r="B14" s="3">
         <v>45498</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>3.15E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:30">
       <c r="B15" s="3">
         <v>45497</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:30">
       <c r="B16" s="3">
         <v>45494</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30">
       <c r="B17" s="3">
         <v>45493</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>2.6600000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:30">
       <c r="B18" s="3">
         <v>45492</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:30">
       <c r="B19" s="3">
         <v>45491</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>2.3511999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:30">
       <c r="B20" s="3">
         <v>45490</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:30">
       <c r="B21" s="3">
         <v>45487</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>2.2099999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:30">
       <c r="B22" s="3">
         <v>45486</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:30">
       <c r="B23" s="3">
         <v>45485</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:30">
       <c r="B24" s="3">
         <v>45484</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>2.2416999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:30">
       <c r="B25" s="3">
         <v>45483</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>2.1524000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:30">
       <c r="B26" s="3">
         <v>45480</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:30">
       <c r="B27" s="3">
         <v>45479</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:30">
       <c r="B28" s="3">
         <v>45478</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:30">
       <c r="B29" s="3">
         <v>45477</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:30">
       <c r="B30" s="3">
         <v>45473</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:30">
       <c r="B31" s="3">
         <v>45472</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>2.0990999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:30">
       <c r="B32" s="3">
         <v>45471</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2.2099999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30">
       <c r="B33" s="3">
         <v>45470</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30">
       <c r="B34" s="3">
         <v>45469</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:30">
       <c r="B35" s="3">
         <v>45466</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:30">
       <c r="B36" s="3">
         <v>45465</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30">
       <c r="B37" s="3">
         <v>45464</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30">
       <c r="B38" s="3">
         <v>45463</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30">
       <c r="B39" s="3">
         <v>45462</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:30">
       <c r="B40" s="3">
         <v>45459</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:30">
       <c r="B41" s="3">
         <v>45458</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30">
       <c r="B42" s="3">
         <v>45457</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>2.1676000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30">
       <c r="B43" s="3">
         <v>45456</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30">
       <c r="B44" s="3">
         <v>45455</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30">
       <c r="B45" s="3">
         <v>45452</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30">
       <c r="B46" s="3">
         <v>45451</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30">
       <c r="B47" s="3">
         <v>45450</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30">
       <c r="B48" s="3">
         <v>45449</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:30">
       <c r="B49" s="3">
         <v>45448</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:30">
       <c r="B50" s="3">
         <v>45445</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>1.8500000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:30">
       <c r="B51" s="3">
         <v>45444</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1.9809E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:30">
       <c r="B52" s="3">
         <v>45443</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:30">
       <c r="B53" s="3">
         <v>45442</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:30">
       <c r="B54" s="3">
         <v>45441</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:30">
       <c r="B55" s="3">
         <v>45439</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>2.2185E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:30">
       <c r="B56" s="3">
         <v>45438</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:30">
       <c r="B57" s="3">
         <v>45437</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:30">
       <c r="B58" s="3">
         <v>45431</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:30">
       <c r="B59" s="3">
         <v>45430</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:30">
       <c r="B60" s="3">
         <v>45429</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>2.1400000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:30">
       <c r="B61" s="3">
         <v>45428</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:30">
       <c r="B62" s="3">
         <v>45427</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:30">
       <c r="B63" s="3">
         <v>45426</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:30">
       <c r="B64" s="3">
         <v>45424</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>2.1932999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:30">
       <c r="B65" s="3">
         <v>45423</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:30">
       <c r="B66" s="3">
         <v>45422</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30">
       <c r="B67" s="3">
         <v>45421</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:30">
       <c r="B68" s="3">
         <v>45420</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:30">
       <c r="B69" s="3">
         <v>45417</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:30">
       <c r="B70" s="3">
         <v>45416</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30">
       <c r="B71" s="3">
         <v>45415</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:30">
       <c r="B72" s="3">
         <v>45414</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30">
       <c r="B73" s="3">
         <v>45413</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:30">
       <c r="B74" s="3">
         <v>45410</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>2.1507000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30">
       <c r="B75" s="3">
         <v>45409</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:30">
       <c r="B76" s="3">
         <v>45408</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30">
       <c r="B77" s="3">
         <v>45407</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:30">
       <c r="B78" s="3">
         <v>45403</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:30">
       <c r="B79" s="3">
         <v>45402</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>2.2799999999999997E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30">
       <c r="B80" s="16">
         <v>45401</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:30">
       <c r="B81" s="3">
         <v>45400</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>2.1096E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:30">
       <c r="B82" s="3">
         <v>45399</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:30">
       <c r="B83" s="3">
         <v>45396</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:30">
       <c r="B84" s="3">
         <v>45395</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:30">
       <c r="B85" s="3">
         <v>45394</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:30">
       <c r="B86" s="3">
         <v>45393</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:30">
       <c r="B87" s="3">
         <v>45392</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>2.2799999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:30">
       <c r="B88" s="3">
         <v>45389</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:30">
       <c r="B89" s="3">
         <v>45388</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:30">
       <c r="B90" s="3">
         <v>45387</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>2.0099999999999996E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:30">
       <c r="B91" s="3">
         <v>45386</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:30">
       <c r="B92" s="3">
         <v>45385</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:30">
       <c r="B93" s="3">
         <v>45382</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:30">
       <c r="B94" s="3">
         <v>45381</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>2.1400000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:30">
       <c r="B95" s="3">
         <v>45380</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:30">
       <c r="B96" s="3">
         <v>45379</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:30">
       <c r="B97" s="3">
         <v>45378</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:30">
       <c r="B98" s="3">
         <v>45375</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:30">
       <c r="B99" s="3">
         <v>45374</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:30">
       <c r="B100" s="3">
         <v>45373</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:30">
       <c r="B101" s="3">
         <v>45372</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:30">
       <c r="B102" s="3">
         <v>45371</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:30">
       <c r="B103" s="3">
         <v>45368</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:30">
       <c r="B104" s="3">
         <v>45367</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:30">
       <c r="B105" s="3">
         <v>45366</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:30">
       <c r="B106" s="3">
         <v>45365</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:30">
       <c r="B107" s="3">
         <v>45364</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:30">
       <c r="B108" s="3">
         <v>45362</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>2.4399999999999998E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:30">
       <c r="B109" s="3">
         <v>45361</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>2.3799999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:30">
       <c r="B110" s="3">
         <v>45360</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>2.3399999999999997E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:30">
       <c r="B111" s="3">
         <v>45352</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:30">
       <c r="B112" s="3">
         <v>45351</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>2.1333000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:30">
       <c r="B113" s="3">
         <v>45350</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>2.2799999999999997E-2</v>
       </c>
     </row>
-    <row r="114" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:30">
       <c r="B114" s="3">
         <v>45349</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="115" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:30">
       <c r="B115" s="3">
         <v>45347</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:30">
       <c r="B116" s="3">
         <v>45346</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:30">
       <c r="B117" s="3">
         <v>45345</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:30">
       <c r="B118" s="3">
         <v>45344</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:30">
       <c r="B119" s="3">
         <v>45343</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:30">
       <c r="B120" s="3">
         <v>45340</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="121" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:30">
       <c r="B121" s="3">
         <v>45339</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:30">
       <c r="B122" s="3">
         <v>45338</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:30">
       <c r="B123" s="3">
         <v>45337</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:30">
       <c r="B124" s="3">
         <v>45336</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:30">
       <c r="B125" s="3">
         <v>45333</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="126" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:30">
       <c r="B126" s="3">
         <v>45332</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>1.9687E-2</v>
       </c>
     </row>
-    <row r="127" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:30">
       <c r="B127" s="3">
         <v>45331</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>1.985E-2</v>
       </c>
     </row>
-    <row r="128" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:30">
       <c r="B128" s="3">
         <v>45330</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:30">
       <c r="B129" s="3">
         <v>45329</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="130" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:30">
       <c r="B130" s="3">
         <v>45326</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:30">
       <c r="B131" s="3">
         <v>45325</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>1.8500000000000003E-2</v>
       </c>
     </row>
-    <row r="132" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:30">
       <c r="B132" s="3">
         <v>45324</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="133" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:30">
       <c r="B133" s="3">
         <v>45323</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:30">
       <c r="B134" s="3">
         <v>45322</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:30">
       <c r="B135" s="3">
         <v>45319</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="136" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:30">
       <c r="B136" s="3">
         <v>45318</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="137" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:30">
       <c r="B137" s="3">
         <v>45317</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>2.6600000000000002E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:30">
       <c r="B138" s="3">
         <v>45316</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:30">
       <c r="B139" s="3">
         <v>45315</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:30">
       <c r="B140" s="3">
         <v>45311</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:30">
       <c r="B141" s="3">
         <v>45310</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="142" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:30">
       <c r="B142" s="3">
         <v>45309</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:30">
       <c r="B143" s="3">
         <v>45308</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:30">
       <c r="B144" s="3">
         <v>45305</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:30">
       <c r="B145" s="3">
         <v>45304</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="146" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:30">
       <c r="B146" s="3">
         <v>45303</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="147" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:30">
       <c r="B147" s="3">
         <v>45302</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:30">
       <c r="B148" s="3">
         <v>45301</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="149" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:30">
       <c r="B149" s="3">
         <v>45298</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:30">
       <c r="B150" s="3">
         <v>45297</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="151" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:30">
       <c r="B151" s="3">
         <v>45296</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="152" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:30">
       <c r="B152" s="3">
         <v>45295</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:30">
       <c r="B153" s="3">
         <v>45294</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="154" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:30">
       <c r="B154" s="3">
         <v>45291</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:30">
       <c r="B155" s="3">
         <v>45290</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="156" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:30">
       <c r="B156" s="3">
         <v>45289</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="157" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:30">
       <c r="B157" s="3">
         <v>45288</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="158" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:30">
       <c r="B158" s="3">
         <v>45287</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>2.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="159" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:30">
       <c r="B159" s="3">
         <v>45284</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:30">
       <c r="B160" s="3">
         <v>45283</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="161" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:30">
       <c r="B161" s="3">
         <v>45282</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="162" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:30">
       <c r="B162" s="3">
         <v>45281</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:30">
       <c r="B163" s="3">
         <v>45280</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:30">
       <c r="B164" s="3">
         <v>45277</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="165" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:30">
       <c r="B165" s="3">
         <v>45276</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="166" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:30">
       <c r="B166" s="3">
         <v>45275</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="167" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:30">
       <c r="B167" s="3">
         <v>45274</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="168" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:30">
       <c r="B168" s="3">
         <v>45273</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="169" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:30">
       <c r="B169" s="3">
         <v>45270</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:30">
       <c r="B170" s="3">
         <v>45269</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="171" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:30">
       <c r="B171" s="3">
         <v>45268</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="172" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:30">
       <c r="B172" s="3">
         <v>45267</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="173" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:30">
       <c r="B173" s="3">
         <v>45266</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="174" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:30">
       <c r="B174" s="3">
         <v>45263</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="175" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:30">
       <c r="B175" s="3">
         <v>45262</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:30">
       <c r="B176" s="3">
         <v>45261</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="177" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:30">
       <c r="B177" s="3">
         <v>45260</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="178" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:30">
       <c r="B178" s="3">
         <v>45259</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:30">
       <c r="B179" s="3">
         <v>45256</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="180" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:30">
       <c r="B180" s="3">
         <v>45255</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>3.15E-2</v>
       </c>
     </row>
-    <row r="181" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:30">
       <c r="B181" s="3">
         <v>45254</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="182" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:30">
       <c r="B182" s="3">
         <v>45253</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="183" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:30">
       <c r="B183" s="3">
         <v>45252</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="184" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:30">
       <c r="B184" s="3">
         <v>45249</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:30">
       <c r="B185" s="3">
         <v>45248</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="186" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:30">
       <c r="B186" s="3">
         <v>45247</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="187" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:30">
       <c r="B187" s="3">
         <v>45246</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="188" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:30">
       <c r="B188" s="3">
         <v>45245</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="189" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:30">
       <c r="B189" s="3">
         <v>45242</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:30">
       <c r="B190" s="3">
         <v>45241</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="191" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:30">
       <c r="B191" s="3">
         <v>45240</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="192" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:30">
       <c r="B192" s="3">
         <v>45239</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="193" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:30">
       <c r="B193" s="3">
         <v>45238</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>2.1408E-2</v>
       </c>
     </row>
-    <row r="194" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:30">
       <c r="B194" s="3">
         <v>45235</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="195" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:30">
       <c r="B195" s="3">
         <v>45234</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="196" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:30">
       <c r="B196" s="3">
         <v>45233</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="197" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:30">
       <c r="B197" s="3">
         <v>45232</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>2.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="198" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:30">
       <c r="B198" s="3">
         <v>45231</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="199" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:30">
       <c r="B199" s="3">
         <v>45229</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>1.8500000000000003E-2</v>
       </c>
     </row>
-    <row r="200" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:30">
       <c r="B200" s="3">
         <v>45228</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="201" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:30">
       <c r="B201" s="3">
         <v>45219</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>2.1144E-2</v>
       </c>
     </row>
-    <row r="202" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:30">
       <c r="B202" s="3">
         <v>45218</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="203" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:30">
       <c r="B203" s="3">
         <v>45217</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="204" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:30">
       <c r="B204" s="3">
         <v>45216</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="205" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:30">
       <c r="B205" s="3">
         <v>45214</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="206" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:30">
       <c r="B206" s="3">
         <v>45213</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="207" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:30">
       <c r="B207" s="3">
         <v>45212</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:30">
       <c r="B208" s="3">
         <v>45211</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:30">
       <c r="B209" s="3">
         <v>45210</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:30">
       <c r="B210" s="3">
         <v>45207</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="211" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:30">
       <c r="B211" s="3">
         <v>45206</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:30">
       <c r="B212" s="3">
         <v>45205</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:30">
       <c r="B213" s="3">
         <v>45204</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:30">
       <c r="B214" s="3">
         <v>45203</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:30">
       <c r="B215" s="3">
         <v>45200</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="216" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:30">
       <c r="B216" s="3">
         <v>45199</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="217" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:30">
       <c r="B217" s="3">
         <v>45198</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="218" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:30">
       <c r="B218" s="3">
         <v>45197</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:30">
       <c r="B219" s="3">
         <v>45196</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="220" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:30">
       <c r="B220" s="3">
         <v>45193</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="221" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:30">
       <c r="B221" s="3">
         <v>45192</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="222" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:30">
       <c r="B222" s="3">
         <v>45191</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="223" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:30">
       <c r="B223" s="3">
         <v>45190</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="224" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:30">
       <c r="B224" s="3">
         <v>45189</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>2.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="225" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:30">
       <c r="B225" s="3">
         <v>45186</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>2.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="226" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:30">
       <c r="B226" s="3">
         <v>45185</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:30">
       <c r="B227" s="3">
         <v>45184</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:30">
       <c r="B228" s="3">
         <v>45183</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="229" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:30">
       <c r="B229" s="3">
         <v>45182</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="230" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:30">
       <c r="B230" s="3">
         <v>45179</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="231" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:30">
       <c r="B231" s="3">
         <v>45178</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="232" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:30">
       <c r="B232" s="3">
         <v>45177</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="233" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:30">
       <c r="B233" s="3">
         <v>45176</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="234" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:30">
       <c r="B234" s="3">
         <v>45175</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="235" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:30">
       <c r="B235" s="3">
         <v>45172</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:30">
       <c r="B236" s="3">
         <v>45171</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="237" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:30">
       <c r="B237" s="3">
         <v>45170</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="238" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:30">
       <c r="B238" s="3">
         <v>45169</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>2.1400000000000002E-2</v>
       </c>
     </row>
-    <row r="239" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:30">
       <c r="B239" s="3">
         <v>45168</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="240" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:30">
       <c r="B240" s="3">
         <v>45165</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="241" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:30">
       <c r="B241" s="3">
         <v>45164</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="242" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:30">
       <c r="B242" s="3">
         <v>45163</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="243" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:30">
       <c r="B243" s="3">
         <v>45162</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="244" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:30">
       <c r="B244" s="3">
         <v>45161</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="245" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:30">
       <c r="B245" s="3">
         <v>45158</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="246" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:30">
       <c r="B246" s="3">
         <v>45157</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:30">
       <c r="B247" s="3">
         <v>45156</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="248" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:30">
       <c r="B248" s="3">
         <v>45155</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="249" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:30">
       <c r="B249" s="3">
         <v>45154</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="250" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:30">
       <c r="B250" s="3">
         <v>45151</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="251" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:30">
       <c r="B251" s="3">
         <v>45150</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:30">
       <c r="B252" s="3">
         <v>45149</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="253" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:30">
       <c r="B253" s="3">
         <v>45148</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="254" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:30">
       <c r="B254" s="3">
         <v>45147</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="255" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:30">
       <c r="B255" s="3">
         <v>45144</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="256" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:30">
       <c r="B256" s="3">
         <v>45143</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="257" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:30">
       <c r="B257" s="3">
         <v>45142</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:30">
       <c r="B258" s="3">
         <v>45141</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>2.1165E-2</v>
       </c>
     </row>
-    <row r="259" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:30">
       <c r="B259" s="3">
         <v>45140</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="260" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:30">
       <c r="B260" s="3">
         <v>45139</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="261" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:30">
       <c r="B261" s="3">
         <v>45138</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="262" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:30">
       <c r="B262" s="3">
         <v>45137</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="263" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:30">
       <c r="B263" s="3">
         <v>45136</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="264" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:30">
       <c r="B264" s="3">
         <v>45135</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>3.15E-2</v>
       </c>
     </row>
-    <row r="265" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:30">
       <c r="B265" s="3">
         <v>45134</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="266" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:30">
       <c r="B266" s="3">
         <v>45133</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="267" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:30">
       <c r="B267" s="3">
         <v>45132</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>2.6600000000000002E-2</v>
       </c>
     </row>
-    <row r="268" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:30">
       <c r="B268" s="3">
         <v>45131</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="269" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:30">
       <c r="B269" s="3">
         <v>45130</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>2.3511999999999998E-2</v>
       </c>
     </row>
-    <row r="270" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:30">
       <c r="B270" s="3">
         <v>45129</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="271" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:30">
       <c r="B271" s="3">
         <v>45128</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>2.2099999999999998E-2</v>
       </c>
     </row>
-    <row r="272" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:30">
       <c r="B272" s="3">
         <v>45127</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="273" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:30">
       <c r="B273" s="3">
         <v>45126</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="274" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:30">
       <c r="B274" s="3">
         <v>45125</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>2.2416999999999999E-2</v>
       </c>
     </row>
-    <row r="275" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:30">
       <c r="B275" s="3">
         <v>45124</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>2.1524000000000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:30">
       <c r="B276" s="3">
         <v>45123</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="277" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:30">
       <c r="B277" s="3">
         <v>45122</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="278" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:30">
       <c r="B278" s="3">
         <v>45121</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="279" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:30">
       <c r="B279" s="3">
         <v>45120</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="280" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:30">
       <c r="B280" s="3">
         <v>45119</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="281" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:30">
       <c r="B281" s="3">
         <v>45118</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>2.0990999999999999E-2</v>
       </c>
     </row>
-    <row r="282" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:30">
       <c r="B282" s="3">
         <v>45117</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>2.2099999999999998E-2</v>
       </c>
     </row>
-    <row r="283" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:30">
       <c r="B283" s="3">
         <v>45116</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="284" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:30">
       <c r="B284" s="3">
         <v>45115</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="285" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:30">
       <c r="B285" s="3">
         <v>45114</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="286" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:30">
       <c r="B286" s="3">
         <v>45113</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="287" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:30">
       <c r="B287" s="3">
         <v>45112</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="288" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:30">
       <c r="B288" s="3">
         <v>45111</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="289" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:30">
       <c r="B289" s="3">
         <v>45110</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="290" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:30">
       <c r="B290" s="3">
         <v>45109</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="291" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:30">
       <c r="B291" s="3">
         <v>45108</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="292" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:30">
       <c r="B292" s="3">
         <v>45107</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>2.1676000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:30">
       <c r="B293" s="3">
         <v>45106</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="294" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:30">
       <c r="B294" s="3">
         <v>45105</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="295" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:30">
       <c r="B295" s="3">
         <v>45104</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="296" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:30">
       <c r="B296" s="3">
         <v>45103</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="297" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:30">
       <c r="B297" s="3">
         <v>45102</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="298" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:30">
       <c r="B298" s="3">
         <v>45101</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="299" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:30">
       <c r="B299" s="3">
         <v>45100</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="300" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:30">
       <c r="B300" s="3">
         <v>45099</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1.8500000000000003E-2</v>
       </c>
     </row>
-    <row r="301" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:30">
       <c r="B301" s="3">
         <v>45098</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>1.9809E-2</v>
       </c>
     </row>
-    <row r="302" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:30">
       <c r="B302" s="3">
         <v>45097</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:30">
       <c r="B303" s="3">
         <v>45096</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="304" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:30">
       <c r="B304" s="3">
         <v>45095</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="305" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:30">
       <c r="B305" s="3">
         <v>45094</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>2.2185E-2</v>
       </c>
     </row>
-    <row r="306" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:30">
       <c r="B306" s="3">
         <v>45093</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="307" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:30">
       <c r="B307" s="3">
         <v>45092</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="308" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:30">
       <c r="B308" s="3">
         <v>45091</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="309" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:30">
       <c r="B309" s="3">
         <v>45090</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="310" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:30">
       <c r="B310" s="3">
         <v>45089</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>2.1400000000000002E-2</v>
       </c>
     </row>
-    <row r="311" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:30">
       <c r="B311" s="3">
         <v>45088</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="312" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:30">
       <c r="B312" s="3">
         <v>45087</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="313" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:30">
       <c r="B313" s="3">
         <v>45086</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="314" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:30">
       <c r="B314" s="3">
         <v>45085</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>2.1932999999999998E-2</v>
       </c>
     </row>
-    <row r="315" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:30">
       <c r="B315" s="3">
         <v>45084</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:30">
       <c r="B316" s="3">
         <v>45083</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="317" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:30">
       <c r="B317" s="3">
         <v>45082</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="318" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:30">
       <c r="B318" s="3">
         <v>45081</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="319" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:30">
       <c r="B319" s="3">
         <v>45080</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="320" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:30">
       <c r="B320" s="3">
         <v>45079</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="321" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:30">
       <c r="B321" s="3">
         <v>45078</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="322" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:30">
       <c r="B322" s="3">
         <v>45077</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="323" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:30">
       <c r="B323" s="3">
         <v>45076</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="324" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:30">
       <c r="B324" s="3">
         <v>45075</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>2.1507000000000002E-2</v>
       </c>
     </row>
-    <row r="325" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:30">
       <c r="B325" s="3">
         <v>45074</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:30">
       <c r="B326" s="3">
         <v>45073</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="327" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:30">
       <c r="B327" s="3">
         <v>45072</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="328" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:30">
       <c r="B328" s="3">
         <v>45071</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="329" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:30">
       <c r="B329" s="3">
         <v>45070</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>2.2799999999999997E-2</v>
       </c>
     </row>
-    <row r="330" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:30">
       <c r="B330" s="3">
         <v>45069</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="331" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:30">
       <c r="B331" s="3">
         <v>45068</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>2.1096E-2</v>
       </c>
     </row>
-    <row r="332" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:30">
       <c r="B332" s="3">
         <v>45067</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:30">
       <c r="B333" s="3">
         <v>45066</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="334" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:30">
       <c r="B334" s="3">
         <v>45065</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="335" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:30">
       <c r="B335" s="3">
         <v>45064</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="336" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:30">
       <c r="B336" s="3">
         <v>45063</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="337" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:30">
       <c r="B337" s="3">
         <v>45062</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>2.2799999999999997E-2</v>
       </c>
     </row>
-    <row r="338" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:30">
       <c r="B338" s="3">
         <v>45061</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="339" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:30">
       <c r="B339" s="3">
         <v>45060</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="340" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:30">
       <c r="B340" s="3">
         <v>45059</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>2.0099999999999996E-2</v>
       </c>
     </row>
-    <row r="341" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:30">
       <c r="B341" s="3">
         <v>45058</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="342" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:30">
       <c r="B342" s="3">
         <v>45057</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="343" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:30">
       <c r="B343" s="3">
         <v>45056</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="344" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:30">
       <c r="B344" s="3">
         <v>45055</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>2.1400000000000002E-2</v>
       </c>
     </row>
-    <row r="345" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:30">
       <c r="B345" s="3">
         <v>45054</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="346" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:30">
       <c r="B346" s="3">
         <v>45053</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="347" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:30">
       <c r="B347" s="3">
         <v>45052</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="348" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:30">
       <c r="B348" s="3">
         <v>45051</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="349" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:30">
       <c r="B349" s="3">
         <v>45050</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="350" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:30">
       <c r="B350" s="3">
         <v>45049</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="351" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:30">
       <c r="B351" s="3">
         <v>45048</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="352" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:30">
       <c r="B352" s="3">
         <v>45047</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="353" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:30">
       <c r="B353" s="3">
         <v>45046</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="354" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:30">
       <c r="B354" s="3">
         <v>45045</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="355" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:30">
       <c r="B355" s="3">
         <v>45044</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="356" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:30">
       <c r="B356" s="3">
         <v>45043</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="357" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:30">
       <c r="B357" s="3">
         <v>45042</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:30">
       <c r="B358" s="3">
         <v>45041</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>2.4399999999999998E-2</v>
       </c>
     </row>
-    <row r="359" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:30">
       <c r="B359" s="3">
         <v>45040</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>2.3799999999999998E-2</v>
       </c>
     </row>
-    <row r="360" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:30">
       <c r="B360" s="3">
         <v>45039</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>2.3399999999999997E-2</v>
       </c>
     </row>
-    <row r="361" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:30">
       <c r="B361" s="3">
         <v>45038</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="362" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:30">
       <c r="B362" s="3">
         <v>45037</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>2.1333000000000001E-2</v>
       </c>
     </row>
-    <row r="363" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:30">
       <c r="B363" s="3">
         <v>45036</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>2.2799999999999997E-2</v>
       </c>
     </row>
-    <row r="364" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:30">
       <c r="B364" s="3">
         <v>45035</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="365" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:30">
       <c r="B365" s="3">
         <v>45034</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="366" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:30">
       <c r="B366" s="3">
         <v>45033</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="367" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:30">
       <c r="B367" s="3">
         <v>45032</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="368" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:30">
       <c r="B368" s="3">
         <v>45031</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="369" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:30">
       <c r="B369" s="3">
         <v>45030</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="370" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:30">
       <c r="B370" s="3">
         <v>45029</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="371" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:30">
       <c r="B371" s="3">
         <v>45028</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="372" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:30">
       <c r="B372" s="3">
         <v>45027</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="373" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:30">
       <c r="B373" s="3">
         <v>45026</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="374" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:30">
       <c r="B374" s="3">
         <v>45025</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="375" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:30">
       <c r="B375" s="3">
         <v>45024</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="376" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:30">
       <c r="B376" s="3">
         <v>45023</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>1.9687E-2</v>
       </c>
     </row>
-    <row r="377" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:30">
       <c r="B377" s="3">
         <v>45022</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>1.985E-2</v>
       </c>
     </row>
-    <row r="378" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:30">
       <c r="B378" s="3">
         <v>45021</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="379" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:30">
       <c r="B379" s="3">
         <v>45020</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="380" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:30">
       <c r="B380" s="3">
         <v>45019</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="381" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:30">
       <c r="B381" s="3">
         <v>45018</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>1.8500000000000003E-2</v>
       </c>
     </row>
-    <row r="382" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:30">
       <c r="B382" s="3">
         <v>45017</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="383" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:30">
       <c r="B383" s="3">
         <v>45016</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="384" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:30">
       <c r="B384" s="3">
         <v>45015</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="385" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:30">
       <c r="B385" s="3">
         <v>45014</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="386" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:30">
       <c r="B386" s="3">
         <v>45013</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="387" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:30">
       <c r="B387" s="3">
         <v>45012</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>2.6600000000000002E-2</v>
       </c>
     </row>
-    <row r="388" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:30">
       <c r="B388" s="3">
         <v>45011</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="389" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:30">
       <c r="B389" s="3">
         <v>45010</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:30">
       <c r="B390" s="3">
         <v>45009</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="391" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:30">
       <c r="B391" s="3">
         <v>45008</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="392" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:30">
       <c r="B392" s="3">
         <v>45007</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:30">
       <c r="B393" s="3">
         <v>45006</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:30">
       <c r="B394" s="3">
         <v>45005</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="395" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:30">
       <c r="B395" s="3">
         <v>45004</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="396" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:30">
       <c r="B396" s="3">
         <v>45003</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="397" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:30">
       <c r="B397" s="3">
         <v>45002</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="398" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:30">
       <c r="B398" s="3">
         <v>45001</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="399" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:30">
       <c r="B399" s="3">
         <v>45000</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="400" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:30">
       <c r="B400" s="3">
         <v>44999</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="401" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:30">
       <c r="B401" s="3">
         <v>44998</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="402" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:30">
       <c r="B402" s="3">
         <v>44997</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="403" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:30">
       <c r="B403" s="3">
         <v>44996</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="404" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:30">
       <c r="B404" s="3">
         <v>44995</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="405" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:30">
       <c r="B405" s="3">
         <v>44994</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="406" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:30">
       <c r="B406" s="3">
         <v>44993</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>2.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="407" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:30">
       <c r="B407" s="3">
         <v>44992</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="408" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:30">
       <c r="B408" s="3">
         <v>44991</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>2.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="409" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:30">
       <c r="B409" s="3">
         <v>44990</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="410" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:30">
       <c r="B410" s="3">
         <v>44989</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="411" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:30">
       <c r="B411" s="3">
         <v>44988</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:30">
       <c r="B412" s="3">
         <v>44987</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="413" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:30">
       <c r="B413" s="3">
         <v>44986</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="414" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:30">
       <c r="B414" s="3">
         <v>44985</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="415" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:30">
       <c r="B415" s="3">
         <v>44984</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="416" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:30">
       <c r="B416" s="3">
         <v>44983</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="417" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:30">
       <c r="B417" s="3">
         <v>44982</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="418" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:30">
       <c r="B418" s="3">
         <v>44981</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="419" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:30">
       <c r="B419" s="3">
         <v>44980</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:30">
       <c r="B420" s="3">
         <v>44979</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="421" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:30">
       <c r="B421" s="3">
         <v>44978</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="422" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:30">
       <c r="B422" s="3">
         <v>44977</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="423" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:30">
       <c r="B423" s="3">
         <v>44976</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="424" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:30">
       <c r="B424" s="3">
         <v>44975</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="425" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:30">
       <c r="B425" s="3">
         <v>44974</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="426" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:30">
       <c r="B426" s="3">
         <v>44973</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="427" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:30">
       <c r="B427" s="3">
         <v>44972</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="428" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:30">
       <c r="B428" s="3">
         <v>44971</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="429" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:30">
       <c r="B429" s="3">
         <v>44970</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="430" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:30">
       <c r="B430" s="3">
         <v>44969</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>3.15E-2</v>
       </c>
     </row>
-    <row r="431" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:30">
       <c r="B431" s="3">
         <v>44968</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="432" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:30">
       <c r="B432" s="3">
         <v>44967</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="433" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:30">
       <c r="B433" s="3">
         <v>44966</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="434" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:30">
       <c r="B434" s="3">
         <v>44965</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="435" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:30">
       <c r="B435" s="3">
         <v>44964</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="436" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:30">
       <c r="B436" s="3">
         <v>44963</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="437" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:30">
       <c r="B437" s="3">
         <v>44962</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="438" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:30">
       <c r="B438" s="3">
         <v>44961</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="439" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:30">
       <c r="B439" s="3">
         <v>44960</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="440" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:30">
       <c r="B440" s="3">
         <v>44959</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="441" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:30">
       <c r="B441" s="3">
         <v>44958</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:30">
       <c r="B442" s="3">
         <v>44957</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="443" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:30">
       <c r="B443" s="3">
         <v>44956</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>2.1408E-2</v>
       </c>
     </row>
-    <row r="444" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:30">
       <c r="B444" s="3">
         <v>44955</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="445" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:30">
       <c r="B445" s="3">
         <v>44954</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="446" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:30">
       <c r="B446" s="3">
         <v>44953</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="447" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:30">
       <c r="B447" s="3">
         <v>44952</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>2.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="448" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:30">
       <c r="B448" s="3">
         <v>44951</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="449" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:30">
       <c r="B449" s="3">
         <v>44950</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>1.8500000000000003E-2</v>
       </c>
     </row>
-    <row r="450" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:30">
       <c r="B450" s="3">
         <v>44949</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="451" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:30">
       <c r="B451" s="3">
         <v>44948</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>2.1144E-2</v>
       </c>
     </row>
-    <row r="452" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:30">
       <c r="B452" s="3">
         <v>44947</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="453" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:30">
       <c r="B453" s="3">
         <v>44946</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="454" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:30">
       <c r="B454" s="3">
         <v>44945</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="455" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:30">
       <c r="B455" s="3">
         <v>44944</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="456" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:30">
       <c r="B456" s="3">
         <v>44943</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="457" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:30">
       <c r="B457" s="3">
         <v>44942</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:30">
       <c r="B458" s="3">
         <v>44941</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="459" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:30">
       <c r="B459" s="3">
         <v>44940</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="460" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:30">
       <c r="B460" s="3">
         <v>44939</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="461" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:30">
       <c r="B461" s="3">
         <v>44938</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="462" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:30">
       <c r="B462" s="3">
         <v>44937</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="463" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:30">
       <c r="B463" s="3">
         <v>44936</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="464" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:30">
       <c r="B464" s="3">
         <v>44935</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="465" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:30">
       <c r="B465" s="3">
         <v>44934</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="466" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:30">
       <c r="B466" s="3">
         <v>44933</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="467" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:30">
       <c r="B467" s="3">
         <v>44932</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="468" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:30">
       <c r="B468" s="3">
         <v>44931</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="469" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:30">
       <c r="B469" s="3">
         <v>44930</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="470" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:30">
       <c r="B470" s="3">
         <v>44929</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="471" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:30">
       <c r="B471" s="3">
         <v>44928</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="472" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:30">
       <c r="B472" s="3">
         <v>44927</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="473" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:30">
       <c r="B473" s="3">
         <v>44926</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="474" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:30">
       <c r="B474" s="3">
         <v>44925</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>2.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:30">
       <c r="B475" s="3">
         <v>44924</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>2.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="476" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:30">
       <c r="B476" s="3">
         <v>44923</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="477" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:30">
       <c r="B477" s="3">
         <v>44922</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="478" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:30">
       <c r="B478" s="3">
         <v>44921</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="479" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:30">
       <c r="B479" s="3">
         <v>44920</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="480" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:30">
       <c r="B480" s="3">
         <v>44919</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="481" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:30">
       <c r="B481" s="3">
         <v>44918</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="482" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:30">
       <c r="B482" s="3">
         <v>44917</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="483" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:30">
       <c r="B483" s="3">
         <v>44916</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="484" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:30">
       <c r="B484" s="3">
         <v>44915</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="485" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:30">
       <c r="B485" s="3">
         <v>44914</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="486" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:30">
       <c r="B486" s="3">
         <v>44913</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="487" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:30">
       <c r="B487" s="3">
         <v>44912</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="488" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:30">
       <c r="B488" s="3">
         <v>44911</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>2.1400000000000002E-2</v>
       </c>
     </row>
-    <row r="489" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:30">
       <c r="B489" s="3">
         <v>44910</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="490" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:30">
       <c r="B490" s="3">
         <v>44909</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="491" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:30">
       <c r="B491" s="3">
         <v>44908</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="492" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:30">
       <c r="B492" s="3">
         <v>44907</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="493" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:30">
       <c r="B493" s="3">
         <v>44906</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="494" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:30">
       <c r="B494" s="3">
         <v>44905</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="495" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:30">
       <c r="B495" s="3">
         <v>44904</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="496" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:30">
       <c r="B496" s="3">
         <v>44903</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="497" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:30">
       <c r="B497" s="3">
         <v>44902</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="498" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:30">
       <c r="B498" s="3">
         <v>44901</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="499" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:30">
       <c r="B499" s="3">
         <v>44900</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="500" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:30">
       <c r="B500" s="3">
         <v>44899</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="501" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:30">
       <c r="B501" s="3">
         <v>44898</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="502" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:30">
       <c r="B502" s="3">
         <v>44897</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="503" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:30">
       <c r="B503" s="3">
         <v>44896</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="504" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:30">
       <c r="B504" s="3">
         <v>44895</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="505" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:30">
       <c r="B505" s="3">
         <v>44894</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="506" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:30">
       <c r="B506" s="3">
         <v>44893</v>
       </c>
@@ -12143,36 +12143,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB1D1EC-7B36-466B-A2DD-F482E2F0C162}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="23" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" customWidth="1"/>
-    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" customWidth="1"/>
-    <col min="13" max="13" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="18" width="11.375" customWidth="1"/>
+    <col min="17" max="18" width="11.42578125" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="12.75" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
-    <col min="23" max="23" width="15.875" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="23.25">
       <c r="B1" s="17" t="s">
         <v>476</v>
       </c>
@@ -12186,7 +12186,7 @@
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="B2" s="56" t="s">
         <v>475</v>
       </c>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="G2" s="57"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -12231,12 +12231,12 @@
         <v>397</v>
       </c>
       <c r="G4" s="55" t="str">
-        <f>_xll.McpCalenders("CNY")</f>
+        <f>_xll.McpCalendar("CNY")</f>
         <v>McpCalendar@2</v>
       </c>
       <c r="O4" s="23"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>472</v>
       </c>
@@ -12249,7 +12249,7 @@
       <c r="D5" s="21"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="D6" s="21"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" t="s">
         <v>470</v>
       </c>
@@ -12277,7 +12277,7 @@
       <c r="H7" s="6"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -12293,7 +12293,7 @@
       <c r="H8" s="6"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -12302,7 +12302,7 @@
       <c r="H9" s="6"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B10" s="27" t="s">
         <v>466</v>
       </c>
@@ -12310,7 +12310,7 @@
       <c r="D10" s="28"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B11" s="21" t="s">
         <v>465</v>
       </c>
@@ -12318,29 +12318,29 @@
       <c r="D11" s="21"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B12" s="21" t="s">
         <v>464</v>
       </c>
       <c r="C12" s="55" t="str">
         <f>_xll.McpBillCurveData(I20:J21,C20:F25)</f>
-        <v>McpBillCurveData@1</v>
+        <v>McpBillCurveData@2</v>
       </c>
       <c r="D12" s="21"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B13" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C13" s="55" t="str">
         <f>I27</f>
-        <v>McpVanillaSwapCurveData@1</v>
+        <v>McpVanillaSwapCurveData@2</v>
       </c>
       <c r="D13" s="21"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B14" s="27" t="s">
         <v>462</v>
       </c>
@@ -12348,36 +12348,36 @@
       <c r="D14" s="28"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B15" s="21" t="s">
         <v>402</v>
       </c>
       <c r="C15" s="21" t="str">
         <f>_xll.McpCalibrationSet(C12:C13)</f>
-        <v>McpCalibrationSet@1</v>
+        <v>McpCalibrationSet@2</v>
       </c>
       <c r="D15" s="21"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B16" s="21" t="s">
         <v>461</v>
       </c>
       <c r="C16" s="55" t="str">
         <f>_xll.McpSwapCurve(B3:C15)</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="D16" s="21"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" thickTop="1">
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="J18" s="32"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1">
       <c r="B19" s="56" t="s">
         <v>460</v>
       </c>
@@ -12391,7 +12391,7 @@
       <c r="J19" s="57"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B20" s="28" t="s">
         <v>458</v>
       </c>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B21" s="3"/>
       <c r="C21" s="21">
         <v>45889</v>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C22" s="21">
         <v>45897</v>
       </c>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C23" s="21">
         <v>45904</v>
       </c>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C24" s="21">
         <v>45922</v>
       </c>
@@ -12484,7 +12484,7 @@
       <c r="J24" s="32"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="C25" s="21">
         <v>45982</v>
       </c>
@@ -12499,17 +12499,17 @@
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" thickTop="1">
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="I27" s="55" t="str">
         <f>_xll.McpVanillaSwapCurveData(I30:J44,C30:F39,,,,"VP|HD")</f>
-        <v>McpVanillaSwapCurveData@1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>McpVanillaSwapCurveData@2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickTop="1"/>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1">
       <c r="B29" s="56" t="s">
         <v>455</v>
       </c>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="J29" s="56"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B30" s="28"/>
       <c r="C30" s="28" t="s">
         <v>453</v>
@@ -12548,7 +12548,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="3"/>
       <c r="B31" s="54"/>
       <c r="C31" s="21">
@@ -12573,7 +12573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B32" s="54"/>
       <c r="C32" s="21">
         <v>46163</v>
@@ -12598,7 +12598,7 @@
         <v>McpCalendar@2</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B33" s="54"/>
       <c r="C33" s="21">
         <v>46255</v>
@@ -12622,7 +12622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B34" s="54"/>
       <c r="C34" s="21">
         <v>46622</v>
@@ -12646,7 +12646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B35" s="54"/>
       <c r="C35" s="21">
         <v>46986</v>
@@ -12670,7 +12670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B36" s="54"/>
       <c r="C36" s="21">
         <v>47351</v>
@@ -12694,7 +12694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B37" s="54"/>
       <c r="C37" s="21">
         <v>47716</v>
@@ -12718,7 +12718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B38" s="54"/>
       <c r="C38" s="21">
         <v>48449</v>
@@ -12742,7 +12742,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B39" s="54"/>
       <c r="C39" s="21">
         <v>49542</v>
@@ -12766,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="H40" s="8" t="s">
         <v>431</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="H41" s="8" t="s">
         <v>428</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="D42" s="25"/>
       <c r="H42" s="8" t="s">
         <v>426</v>
@@ -12800,7 +12800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="H43" s="8" t="s">
         <v>426</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="H44" s="8" t="s">
         <v>425</v>
       </c>
@@ -12822,10 +12822,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" ht="15.75" thickTop="1">
       <c r="H45" s="8"/>
     </row>
-    <row r="51" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="13" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12841,32 +12841,32 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="23.625" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" customWidth="1"/>
-    <col min="13" max="13" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="18" width="11.375" customWidth="1"/>
+    <col min="17" max="18" width="11.42578125" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="12.75" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
-    <col min="23" max="23" width="15.875" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="23.25">
       <c r="B1" s="17" t="s">
         <v>509</v>
       </c>
@@ -12880,7 +12880,7 @@
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="B2" s="56" t="s">
         <v>475</v>
       </c>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="G2" s="57"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" t="s">
         <v>507</v>
       </c>
@@ -12926,11 +12926,11 @@
       </c>
       <c r="G4" s="55" t="str">
         <f>_xll.McpCalendar("CNY")</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="O4" s="23"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -12943,7 +12943,7 @@
       <c r="D5" s="21"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" t="s">
         <v>505</v>
       </c>
@@ -12956,7 +12956,7 @@
       <c r="D6" s="21"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" t="s">
         <v>504</v>
       </c>
@@ -12969,7 +12969,7 @@
       <c r="D7" s="21"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" t="s">
         <v>502</v>
       </c>
@@ -12985,14 +12985,14 @@
       <c r="H8" s="25"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="G9" s="25"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B10" s="27" t="s">
         <v>500</v>
       </c>
@@ -13000,29 +13000,29 @@
       <c r="D10" s="28"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B11" s="21" t="s">
         <v>499</v>
       </c>
       <c r="C11" s="21" t="str">
         <f>I15</f>
-        <v>McpBillCurveData@2</v>
+        <v>McpBillCurveData@3</v>
       </c>
       <c r="D11" s="21"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B12" s="21" t="s">
         <v>498</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>I22</f>
-        <v>McpVanillaSwapCurveData@2</v>
+        <v>McpVanillaSwapCurveData@1</v>
       </c>
       <c r="D12" s="21"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B13" s="27" t="s">
         <v>497</v>
       </c>
@@ -13030,36 +13030,36 @@
       <c r="D13" s="28"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B14" s="21" t="s">
         <v>402</v>
       </c>
       <c r="C14" s="21" t="str">
         <f>_xll.McpCalibrationSet(C11:C12)</f>
-        <v>McpCalibrationSet@2</v>
+        <v>McpCalibrationSet@1</v>
       </c>
       <c r="D14" s="21"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B15" s="21" t="s">
         <v>496</v>
       </c>
       <c r="C15" s="55" t="str">
         <f>_xll.McpSwapCurve(B3:C14)</f>
-        <v>McpSwapCurve@2</v>
+        <v>McpSwapCurve@1</v>
       </c>
       <c r="D15" s="21"/>
       <c r="I15" s="55" t="str">
         <f>_xll.McpBillCurveData(I18:J19,B18:F19)</f>
-        <v>McpBillCurveData@2</v>
+        <v>McpBillCurveData@3</v>
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" thickTop="1">
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="B17" s="56" t="s">
         <v>460</v>
       </c>
@@ -13073,7 +13073,7 @@
       <c r="J17" s="57"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B18" s="28" t="s">
         <v>495</v>
       </c>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B19" s="21">
         <f>$G$3</f>
         <v>45888</v>
@@ -13123,23 +13123,23 @@
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" thickTop="1">
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1">
       <c r="I22" s="55" t="str">
         <f>_xll.McpVanillaSwapCurveData(I25:J39,C25:F36,,,,"VP|HD")</f>
-        <v>McpVanillaSwapCurveData@2</v>
+        <v>McpVanillaSwapCurveData@1</v>
       </c>
       <c r="M22" s="31"/>
     </row>
-    <row r="23" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" thickTop="1">
       <c r="M23" s="31"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="B24" s="56" t="s">
         <v>455</v>
       </c>
@@ -13153,7 +13153,7 @@
       <c r="J24" s="57"/>
       <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B25" s="28"/>
       <c r="C25" s="28" t="s">
         <v>492</v>
@@ -13175,7 +13175,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="3"/>
       <c r="B26" s="54"/>
       <c r="C26" s="21">
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B27" s="54"/>
       <c r="C27" s="21">
         <v>45982</v>
@@ -13216,10 +13216,10 @@
       </c>
       <c r="J27" s="55" t="str">
         <f>G4</f>
-        <v>McpCalendar@3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>McpCalendar@1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B28" s="54"/>
       <c r="C28" s="21">
         <v>46076</v>
@@ -13240,7 +13240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B29" s="54"/>
       <c r="C29" s="21">
         <v>46163</v>
@@ -13261,7 +13261,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B30" s="54"/>
       <c r="C30" s="21">
         <v>46255</v>
@@ -13283,7 +13283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B31" s="54"/>
       <c r="C31" s="21">
         <v>46622</v>
@@ -13305,7 +13305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="B32" s="54"/>
       <c r="C32" s="21">
         <v>46986</v>
@@ -13327,7 +13327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B33" s="54"/>
       <c r="C33" s="21">
         <v>47351</v>
@@ -13349,7 +13349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B34" s="54"/>
       <c r="C34" s="21">
         <v>47716</v>
@@ -13371,7 +13371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B35" s="54"/>
       <c r="C35" s="21">
         <v>48449</v>
@@ -13393,7 +13393,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B36" s="54"/>
       <c r="C36" s="21">
         <v>49542</v>
@@ -13415,7 +13415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B37" s="54"/>
       <c r="C37" s="58"/>
       <c r="D37" s="59"/>
@@ -13429,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B38" s="54"/>
       <c r="C38" s="58"/>
       <c r="D38" s="59"/>
@@ -13443,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="H39" s="8"/>
       <c r="I39" s="51" t="s">
         <v>477</v>
@@ -13452,11 +13452,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="41" spans="2:10">
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="C42" s="3"/>
     </row>
   </sheetData>
@@ -13485,35 +13485,35 @@
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
-    <col min="6" max="6" width="24.25" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="9" max="9" width="1.125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" customWidth="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="15.375" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
-    <col min="21" max="21" width="11.375" customWidth="1"/>
-    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.25" customWidth="1"/>
-    <col min="28" max="28" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="U1" s="32"/>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15.75" thickBot="1">
       <c r="A2" s="47"/>
       <c r="B2" s="45" t="s">
         <v>3</v>
@@ -13539,7 +13539,7 @@
       </c>
       <c r="P2" s="56"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="AB3" s="56"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -13613,10 +13613,10 @@
       </c>
       <c r="AB4" s="52" t="str">
         <f>'SHIBOR3M Curve'!C16</f>
-        <v>McpSwapCurve@1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>McpSwapCurve@2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -13657,10 +13657,10 @@
       </c>
       <c r="AB5" s="52" t="str">
         <f>'FR007 Curve'!C15</f>
-        <v>McpSwapCurve@2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>McpSwapCurve@1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>-0.42978747539539486</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>0.49863387978142076</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15.75" thickTop="1">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -13818,20 +13818,20 @@
         <v>4986338.8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="G10" t="s">
         <v>410</v>
       </c>
       <c r="H10" s="3" t="str">
         <f>H20</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="O10" s="3" t="str">
         <f>H10</f>
-        <v>McpCalendar@3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>McpCalendar@1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="41" t="s">
         <v>146</v>
       </c>
@@ -13851,7 +13851,7 @@
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>1.5275E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="F14" t="s">
         <v>36</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="F15" t="s">
         <v>40</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="F16" t="s">
         <v>44</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="F17" t="s">
         <v>49</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>Quarterly</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="F18" t="s">
         <v>51</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>Act365Fixed</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="F19" t="s">
         <v>53</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="F20" t="s">
         <v>56</v>
       </c>
@@ -14069,17 +14069,17 @@
       </c>
       <c r="H20" s="2" t="str">
         <f>'FR007 Curve'!G4</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="K20" t="s">
         <v>56</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>H20</f>
-        <v>McpCalendar@3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>McpCalendar@1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="F21" t="s">
         <v>58</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="F22" t="s">
         <v>60</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="F23" t="s">
         <v>63</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="F24" t="s">
         <v>66</v>
       </c>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="H24" s="2" t="str">
         <f>AB5</f>
-        <v>McpSwapCurve@2</v>
+        <v>McpSwapCurve@1</v>
       </c>
       <c r="K24" t="s">
         <v>66</v>
@@ -14147,10 +14147,10 @@
       <c r="M24" s="3"/>
       <c r="O24" s="2" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>McpSwapCurve@1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="F25" t="s">
         <v>68</v>
       </c>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="H25" s="2" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@2</v>
+        <v>McpSwapCurve@1</v>
       </c>
       <c r="K25" t="s">
         <v>68</v>
@@ -14169,18 +14169,18 @@
       </c>
       <c r="M25" s="2" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@2</v>
+        <v>McpSwapCurve@1</v>
       </c>
       <c r="O25" s="2" t="str">
         <f>M25</f>
-        <v>McpSwapCurve@2</v>
+        <v>McpSwapCurve@1</v>
       </c>
       <c r="P25" s="2" t="str">
         <f>M25</f>
-        <v>McpSwapCurve@2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>McpSwapCurve@1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="G26" t="s">
         <v>421</v>
       </c>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="41" t="s">
         <v>71</v>
       </c>
@@ -14217,7 +14217,7 @@
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="F28" t="s">
         <v>73</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="F29" t="s">
         <v>76</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="F30" t="s">
         <v>79</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="F31" t="s">
         <v>82</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="F32" t="s">
         <v>86</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="41" t="s">
         <v>72</v>
       </c>
@@ -14369,7 +14369,7 @@
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="F34" t="s">
         <v>90</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="F35" t="s">
         <v>94</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="F36" t="s">
         <v>98</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="F37" t="s">
         <v>101</v>
       </c>
@@ -14465,7 +14465,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="F38" t="s">
         <v>104</v>
       </c>
@@ -14491,17 +14491,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="H39" t="str">
         <f>_xll.McpVanillaSwap($G$10:$G$38,H10:H38,L4:L38,M4:N38,HistFixing!B2:C29,"VF|VV|VF|VV")</f>
-        <v>McpVanillaSwap@2</v>
+        <v>McpVanillaSwap@4</v>
       </c>
       <c r="O39" t="str">
         <f>_xll.McpVanillaSwap($G$10:$G$38,O10:O38,L4:L38,P4:P38,,"VF|VV|VF|VV")</f>
-        <v>McpVanillaSwap@6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+        <v>McpVanillaSwap@5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17.25">
       <c r="A40" s="41" t="s">
         <v>108</v>
       </c>
@@ -14525,7 +14525,7 @@
       <c r="O40" s="41"/>
       <c r="P40" s="41"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="B41" t="s">
         <v>110</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>-149711.16696570689</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="B42" t="s">
         <v>114</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>-4985532.403428643</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="B43" t="s">
         <v>118</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>-3.0024266896125651</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="B44" t="s">
         <v>122</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="B45" t="s">
         <v>126</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>-1.9817028495923457</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="B46" t="s">
         <v>129</v>
       </c>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="D46" s="5">
         <f t="shared" si="0"/>
-        <v>-0.97003240350908626</v>
+        <v>-0.97001548838104024</v>
       </c>
       <c r="F46" t="s">
         <v>129</v>
@@ -14762,14 +14762,14 @@
       </c>
       <c r="O46">
         <f>_xll.SwapFloatingLegMDuration(O39)</f>
-        <v>0.25097202430327875</v>
+        <v>0.25096952858195526</v>
       </c>
       <c r="P46">
         <f>_xll.SwapFixedLegMDuration(O39)</f>
-        <v>-1.9519728079716654</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-1.951953397122296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="B47" t="s">
         <v>132</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>-982.82062417210545</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="B48" t="s">
         <v>136</v>
       </c>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="D48" s="5">
         <f t="shared" si="0"/>
-        <v>-117.20824048430791</v>
+        <v>-117.19980602837973</v>
       </c>
       <c r="F48" t="s">
         <v>138</v>
@@ -14842,14 +14842,14 @@
       </c>
       <c r="O48" s="5">
         <f>_xll.SwapFloatingLegDV01(O39)</f>
-        <v>125.14315424979819</v>
+        <v>125.14190979859123</v>
       </c>
       <c r="P48" s="5">
         <f>_xll.SwapFixedLegDV01(O39)</f>
-        <v>-973.31977489340636</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-973.31009598627122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="B49" t="s">
         <v>140</v>
       </c>
@@ -14886,13 +14886,13 @@
         <v>-9841409.1096149795</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="H50" s="5"/>
       <c r="M50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -14912,7 +14912,7 @@
       <c r="O51" s="41"/>
       <c r="P51" s="41"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="F52" t="s">
         <v>112</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>-327.1901008640416</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="F53" t="s">
         <v>116</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>-327.19010086450726</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="F54" s="6" t="s">
         <v>120</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>-6.5617302391096644E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="F55" t="s">
         <v>124</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="F56" t="s">
         <v>126</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>-1.7269083290444005</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="F57" t="s">
         <v>129</v>
       </c>
@@ -15005,10 +15005,10 @@
       </c>
       <c r="O57" s="5">
         <f t="shared" si="2"/>
-        <v>-1.7010007836683867</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-1.7009838685403407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="F58" t="s">
         <v>134</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>92877.373122030171</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="F59" t="s">
         <v>138</v>
       </c>
@@ -15037,10 +15037,10 @@
       </c>
       <c r="O59" s="5">
         <f t="shared" si="2"/>
-        <v>-848.1766206436082</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-848.16818618768002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="F60" t="s">
         <v>142</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="F61" t="s">
         <v>140</v>
       </c>
@@ -15066,7 +15066,7 @@
       </c>
       <c r="O61" s="7">
         <f>_xll.SwapMarketParRate(O39)</f>
-        <v>1.5230766278744E-2</v>
+        <v>1.5240862058442684E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15111,32 +15111,32 @@
       <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="0.75" customWidth="1"/>
-    <col min="6" max="6" width="26.375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="1.125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" customWidth="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.875" customWidth="1"/>
-    <col min="13" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="9.625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="30.375" customWidth="1"/>
-    <col min="16" max="16" width="15.375" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
-    <col min="21" max="21" width="11.375" customWidth="1"/>
-    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.625" customWidth="1"/>
-    <col min="28" max="28" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" customWidth="1"/>
+    <col min="28" max="28" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15.75" thickBot="1">
       <c r="A2" s="47"/>
       <c r="B2" s="45" t="s">
         <v>3</v>
@@ -15162,7 +15162,7 @@
       </c>
       <c r="P2" s="56"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="AB3" s="56"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" t="s">
         <v>411</v>
       </c>
@@ -15236,10 +15236,10 @@
       </c>
       <c r="AB4" s="52" t="str">
         <f>'Intertemporal Strategy'!AB4</f>
-        <v>McpSwapCurve@1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>McpSwapCurve@2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -15280,10 +15280,10 @@
       </c>
       <c r="AB5" s="52" t="str">
         <f>'Intertemporal Strategy'!AB5</f>
-        <v>McpSwapCurve@2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>McpSwapCurve@1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="D6" s="1" t="s">
         <v>413</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>-1.000377113558016</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15.75" thickTop="1">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -15438,20 +15438,20 @@
         <v>9954605.6671755053</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="G10" t="s">
         <v>410</v>
       </c>
       <c r="H10" s="3" t="str">
         <f>H20</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="O10" s="3" t="str">
         <f>H10</f>
-        <v>McpCalendar@3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>McpCalendar@1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="41" t="s">
         <v>146</v>
       </c>
@@ -15471,7 +15471,7 @@
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="F14" t="s">
         <v>36</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="F15" t="s">
         <v>40</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="F16" t="s">
         <v>44</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="F17" t="s">
         <v>49</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>Quarterly</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="F18" t="s">
         <v>51</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>Act365Fixed</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="F19" t="s">
         <v>53</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="F20" t="s">
         <v>56</v>
       </c>
@@ -15689,17 +15689,17 @@
       </c>
       <c r="H20" s="2" t="str">
         <f>'FR007 Curve'!G4</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="K20" t="s">
         <v>56</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>H20</f>
-        <v>McpCalendar@3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>McpCalendar@1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="F21" t="s">
         <v>58</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="F22" t="s">
         <v>60</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="F23" t="s">
         <v>63</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="F24" t="s">
         <v>66</v>
       </c>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="H24" s="2" t="str">
         <f>VLOOKUP(D5,AA4:AB5,2,FALSE)</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="K24" t="s">
         <v>66</v>
@@ -15767,10 +15767,10 @@
       <c r="M24" s="3"/>
       <c r="O24" s="2" t="str">
         <f>VLOOKUP(D6,AA4:AB5,2,FALSE)</f>
-        <v>McpSwapCurve@2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>McpSwapCurve@1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="F25" t="s">
         <v>68</v>
       </c>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="H25" s="2" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="K25" t="s">
         <v>68</v>
@@ -15789,18 +15789,18 @@
       </c>
       <c r="M25" s="2" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="O25" s="2" t="str">
         <f>O24</f>
-        <v>McpSwapCurve@2</v>
+        <v>McpSwapCurve@1</v>
       </c>
       <c r="P25" s="2" t="str">
         <f>O25</f>
-        <v>McpSwapCurve@2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>McpSwapCurve@1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="G26" t="s">
         <v>421</v>
       </c>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="41" t="s">
         <v>71</v>
       </c>
@@ -15837,7 +15837,7 @@
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="F28" t="s">
         <v>73</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="F29" t="s">
         <v>76</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="F30" t="s">
         <v>79</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="F31" t="s">
         <v>82</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="F32" t="s">
         <v>86</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="41" t="s">
         <v>72</v>
       </c>
@@ -15989,7 +15989,7 @@
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="F34" t="s">
         <v>90</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="F35" t="s">
         <v>94</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="F36" t="s">
         <v>98</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="F37" t="s">
         <v>101</v>
       </c>
@@ -16085,7 +16085,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="F38" t="s">
         <v>104</v>
       </c>
@@ -16111,17 +16111,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="H39" t="str">
         <f>_xll.McpVanillaSwap($G$10:$G$38,H10:H38,L4:L38,M4:N38,HistFixing!B2:C29,"VF|VV|VF|VV")</f>
-        <v>McpVanillaSwap@0</v>
+        <v>McpVanillaSwap@6</v>
       </c>
       <c r="O39" t="str">
         <f>_xll.McpVanillaSwap($G$10:$G$38,O10:O38,L4:L38,P4:P38,,"VF|VV|VF|VV")</f>
-        <v>McpVanillaSwap@5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+        <v>McpVanillaSwap@3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17.25">
       <c r="A40" s="41" t="s">
         <v>108</v>
       </c>
@@ -16145,7 +16145,7 @@
       <c r="O40" s="41"/>
       <c r="P40" s="41"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="B41" t="s">
         <v>110</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>-161664.29627698436</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="B42" t="s">
         <v>114</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>-9963318.800265206</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="B43" t="s">
         <v>118</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>-1.6240150708335852</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="B44" t="s">
         <v>122</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="B45" t="s">
         <v>126</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>-0.99665852604157856</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="B46" t="s">
         <v>129</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>-0.98157149445042757</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="B47" t="s">
         <v>132</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>-985.81781571882311</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="B48" t="s">
         <v>136</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>-977.11571613941567</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="B49" t="s">
         <v>140</v>
       </c>
@@ -16506,13 +16506,13 @@
         <v>-9884937.1628671773</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="H50" s="5"/>
       <c r="M50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -16532,7 +16532,7 @@
       <c r="O51" s="41"/>
       <c r="P51" s="41"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="F52" t="s">
         <v>112</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>-10150.517353197647</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="F53" t="s">
         <v>116</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>-10150.51735319756</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="F54" s="6" t="s">
         <v>120</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>-0.10196805069504822</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="F55" t="s">
         <v>124</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="F56" t="s">
         <v>126</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>-0.74186400549363329</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="F57" t="s">
         <v>129</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>-0.73063395488475169</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="F58" t="s">
         <v>134</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>71720.77714760782</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="F59" t="s">
         <v>138</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>-727.31729079266017</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="F60" t="s">
         <v>142</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="F61" t="s">
         <v>140</v>
       </c>
@@ -16728,40 +16728,40 @@
   <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="1.125" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" customWidth="1"/>
     <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="19.75" customWidth="1"/>
-    <col min="14" max="14" width="0.625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="16" max="16" width="15.375" customWidth="1"/>
-    <col min="17" max="17" width="18.75" customWidth="1"/>
-    <col min="18" max="18" width="15.375" customWidth="1"/>
-    <col min="21" max="21" width="11.375" customWidth="1"/>
-    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.25" customWidth="1"/>
-    <col min="28" max="28" width="25.25" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="0.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" customWidth="1"/>
+    <col min="28" max="28" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15.75" thickBot="1">
       <c r="A2" s="47"/>
       <c r="B2" s="45" t="s">
         <v>3</v>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="R2" s="56"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="AB3" s="56"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" t="s">
         <v>411</v>
       </c>
@@ -16879,10 +16879,10 @@
       </c>
       <c r="AB4" s="52" t="str">
         <f>'SHIBOR3M Curve'!C16</f>
-        <v>McpSwapCurve@1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>McpSwapCurve@2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -16931,10 +16931,10 @@
       </c>
       <c r="AB5" s="52" t="str">
         <f>'FR007 Curve'!C15</f>
-        <v>McpSwapCurve@2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>McpSwapCurve@1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>-3.0739366474519345</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>2.9931693989071038</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15.75" thickTop="1">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -17136,18 +17136,18 @@
       </c>
       <c r="H10" s="3" t="str">
         <f>H20</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="O10" s="3" t="str">
         <f>H10</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="Q10" s="3" t="str">
         <f>O10</f>
-        <v>McpCalendar@3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>McpCalendar@1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="41" t="s">
         <v>146</v>
       </c>
@@ -17169,7 +17169,7 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="F14" t="s">
         <v>36</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="F15" t="s">
         <v>40</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="F16" t="s">
         <v>44</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="F17" t="s">
         <v>49</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>Quarterly</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="F18" t="s">
         <v>51</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>Act365Fixed</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="F19" t="s">
         <v>53</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="F20" t="s">
         <v>56</v>
       </c>
@@ -17434,21 +17434,21 @@
       </c>
       <c r="H20" s="2" t="str">
         <f>'FR007 Curve'!G4</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="K20" t="s">
         <v>56</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>H20</f>
-        <v>McpCalendar@3</v>
+        <v>McpCalendar@1</v>
       </c>
       <c r="Q20" s="2" t="str">
         <f>H20</f>
-        <v>McpCalendar@3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>McpCalendar@1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="F21" t="s">
         <v>58</v>
       </c>
@@ -17468,7 +17468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="F22" t="s">
         <v>60</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="F23" t="s">
         <v>63</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="F24" t="s">
         <v>66</v>
       </c>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="H24" s="2" t="str">
         <f>VLOOKUP(D5,AA4:AB5,2,FALSE)</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="K24" t="s">
         <v>66</v>
@@ -17525,14 +17525,14 @@
       <c r="M24" s="3"/>
       <c r="O24" s="2" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="Q24" s="2" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>McpSwapCurve@2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="F25" t="s">
         <v>68</v>
       </c>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="H25" s="1" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="K25" t="s">
         <v>68</v>
@@ -17551,26 +17551,26 @@
       </c>
       <c r="M25" s="2" t="str">
         <f>H24</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="O25" s="2" t="str">
         <f>O24</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="P25" s="2" t="str">
         <f>O25</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="Q25" s="2" t="str">
         <f>Q24</f>
-        <v>McpSwapCurve@1</v>
+        <v>McpSwapCurve@2</v>
       </c>
       <c r="R25" s="2" t="str">
         <f>Q25</f>
-        <v>McpSwapCurve@1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>McpSwapCurve@2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="G26" t="s">
         <v>421</v>
       </c>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="41" t="s">
         <v>71</v>
       </c>
@@ -17614,7 +17614,7 @@
       <c r="Q27" s="41"/>
       <c r="R27" s="41"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="F28" t="s">
         <v>73</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="F29" t="s">
         <v>76</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="F30" t="s">
         <v>79</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="F31" t="s">
         <v>82</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="F32" t="s">
         <v>86</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="41" t="s">
         <v>72</v>
       </c>
@@ -17798,7 +17798,7 @@
       <c r="Q33" s="41"/>
       <c r="R33" s="41"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="F34" t="s">
         <v>90</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="F35" t="s">
         <v>94</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="F36" t="s">
         <v>98</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="F37" t="s">
         <v>101</v>
       </c>
@@ -17914,7 +17914,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="F38" t="s">
         <v>104</v>
       </c>
@@ -17946,21 +17946,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="H39" t="str">
         <f>_xll.McpVanillaSwap($G$10:$G$38,H10:H38,L4:L38,M4:N38,HistFixing!B2:C29,"VF|VV|VF|VV")</f>
-        <v>McpVanillaSwap@1</v>
+        <v>McpVanillaSwap@7</v>
       </c>
       <c r="O39" t="str">
         <f>_xll.McpVanillaSwap($G$10:$G$38,O10:O38,L4:L38,P4:P38,,"VF|VV|VF|VV")</f>
-        <v>McpVanillaSwap@3</v>
+        <v>McpVanillaSwap@9</v>
       </c>
       <c r="Q39" t="str">
         <f>_xll.McpVanillaSwap($G$10:$G$38,Q10:Q38,L4:L38,R4:R38,,"VF|VV|VF|VV")</f>
-        <v>McpVanillaSwap@4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+        <v>McpVanillaSwap@8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="41" t="s">
         <v>108</v>
       </c>
@@ -17986,7 +17986,7 @@
       <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="B41" t="s">
         <v>110</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>786190.76782504586</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="B42" t="s">
         <v>114</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>9979966.1322746817</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="B43" t="s">
         <v>118</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>7.8619076782504589</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="B44" t="s">
         <v>122</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="B45" t="s">
         <v>126</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>4.8156414354763406</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="B46" t="s">
         <v>129</v>
       </c>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="D46" s="5">
         <f t="shared" si="0"/>
-        <v>-2.9977191659572133</v>
+        <v>-1.2698160188694534</v>
       </c>
       <c r="F46" t="s">
         <v>129</v>
@@ -18263,11 +18263,11 @@
       </c>
       <c r="O46">
         <f>_xll.SwapFloatingLegMDuration(O39)</f>
-        <v>0.25519091566884466</v>
+        <v>0.25081818301397035</v>
       </c>
       <c r="P46">
         <f>_xll.SwapFixedLegMDuration(O39)</f>
-        <v>-1.982869520421906</v>
+        <v>-1.9488927690176536</v>
       </c>
       <c r="Q46">
         <f>_xll.SwapFloatingLegMDuration(Q39)</f>
@@ -18278,16 +18278,16 @@
         <v>4.7362443938227852</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="B47" t="s">
         <v>132</v>
       </c>
       <c r="C47" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="5" t="e">
+      <c r="D47" s="5">
         <f>H58+O58+Q58</f>
-        <v>#VALUE!</v>
+        <v>-58.289978301123483</v>
       </c>
       <c r="F47" t="s">
         <v>134</v>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="O47" s="5">
         <f>_xll.SwapFloatingLegPV01(O39)</f>
-        <v>187340.03756984021</v>
+        <v>187145.97039374348</v>
       </c>
       <c r="P47" s="5">
         <f>_xll.SwapFixedLegPVBP(O39)</f>
@@ -18326,7 +18326,7 @@
         <v>4794.1302065122873</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="B48" t="s">
         <v>136</v>
       </c>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="D48" s="5">
         <f t="shared" si="0"/>
-        <v>3487.6091058662842</v>
+        <v>3517.2186503789717</v>
       </c>
       <c r="F48" t="s">
         <v>138</v>
@@ -18359,11 +18359,11 @@
       </c>
       <c r="O48" s="5">
         <f>_xll.SwapFloatingLegDV01(O39)</f>
-        <v>255.23854854634538</v>
+        <v>250.86499969533673</v>
       </c>
       <c r="P48" s="5">
         <f>_xll.SwapFixedLegDV01(O39)</f>
-        <v>-1983.2396346194223</v>
+        <v>-1949.2565412557262</v>
       </c>
       <c r="Q48" s="5">
         <f>_xll.SwapFloatingLegDV01(Q39)</f>
@@ -18374,7 +18374,7 @@
         <v>4736.2443938227852</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="B49" t="s">
         <v>140</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>47966704.411525041</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="H50" s="5"/>
       <c r="M50" s="5"/>
       <c r="O50" s="5"/>
@@ -18427,7 +18427,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -18448,7 +18448,7 @@
       <c r="Q51" s="41"/>
       <c r="R51" s="41"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="F52" t="s">
         <v>112</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>-17435.840999291744</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="F53" t="s">
         <v>116</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>-17435.840999290347</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="F54" s="6" t="s">
         <v>120</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>-0.17435840999291763</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="F55" t="s">
         <v>124</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="F56" t="s">
         <v>126</v>
       </c>
@@ -18549,7 +18549,7 @@
       </c>
       <c r="T56" s="38"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="F57" t="s">
         <v>129</v>
       </c>
@@ -18562,15 +18562,15 @@
       </c>
       <c r="O57" s="5">
         <f>_xll.SwapMDuration(O39)</f>
-        <v>-1.7276786047530615</v>
+        <v>-0.74918181698602959</v>
       </c>
       <c r="Q57" s="5">
         <f>_xll.SwapMDuration(Q39)</f>
-        <v>-2</v>
+        <v>-1.2505936406792717</v>
       </c>
       <c r="T57" s="33"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="F58" t="s">
         <v>134</v>
       </c>
@@ -18581,16 +18581,16 @@
         <f>_xll.SwapPVBP(H39)</f>
         <v>-13.72900117727113</v>
       </c>
-      <c r="O58" s="5" t="str">
+      <c r="O58" s="5">
         <f>_xll.SwapPVBP(O39)</f>
-        <v>##RuntimeError: Year out of bound. It must be in [1901,2199]</v>
+        <v>21.927379297034349</v>
       </c>
       <c r="Q58" s="5">
         <f>_xll.SwapPVBP(Q39)</f>
         <v>-66.488356420886703</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="F59" t="s">
         <v>138</v>
       </c>
@@ -18603,14 +18603,14 @@
       </c>
       <c r="O59" s="5">
         <f>_xll.SwapDV01(O39)</f>
-        <v>-1728.001086073077</v>
+        <v>-1698.3915415603894</v>
       </c>
       <c r="Q59" s="5">
         <f>_xll.SwapDV01(Q39)</f>
         <v>4485.6507531435136</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="F60" t="s">
         <v>142</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>-666204.22793784738</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="F61" t="s">
         <v>140</v>
       </c>
@@ -18640,7 +18640,7 @@
       </c>
       <c r="O61" s="7">
         <f>_xll.SwapMarketParRate(O39)</f>
-        <v>-1.5533277109825363E-3</v>
+        <v>1.5853465989558731E-2</v>
       </c>
       <c r="Q61" s="7">
         <f>_xll.SwapMarketParRate(Q39)</f>
@@ -19376,6 +19376,10 @@
     </x:cell>
     <x:cell>
       <x:sheet>SHIBOR3M Curve</x:sheet>
+      <x:address>G4</x:address>
+    </x:cell>
+    <x:cell>
+      <x:sheet>SHIBOR3M Curve</x:sheet>
       <x:address>C12</x:address>
     </x:cell>
     <x:cell>
@@ -19395,7 +19399,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E989D17-08EA-4873-BF5B-DE098B5FE441}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AB0F2B-0551-463F-AA37-FACFC75DDE1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="urn:pyxll:metadata"/>
   </ds:schemaRefs>
